--- a/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0007.xlsx
+++ b/Eddington/SR EDDINGTON-260/BLE_GAP_DISC_0007.xlsx
@@ -273,7 +273,8 @@
     <t>- There should be a least one ScanResult object with:
        • addr attribute matching the BLE Peripheral address.
        • raw_data attribute matching the advertising data of the BLE Peripheral.
-- The discovery procedure should be process normally during enormous timeout.</t>
+- The discovery procedure should be process normally during enormous timeout.
+- Every other ScanResult should follow the raw format</t>
   </si>
   <si>
     <t>Function returns a list of ScanResult objects.
@@ -281,7 +282,8 @@
        • addr attribute matching the BLE Peripheral address.
        • flag attribute matching the flags in the advertising data of the BLE Peripheral.
        • name attribute matching the name in the advertising data of the BLE Peripheral.
-- The discovery procedure should be process normally during enormous timeout.</t>
+- The discovery procedure should be process normally during enormous timeout.
+- Every other ScanResult should follow the parsed format</t>
   </si>
 </sst>
 </file>
@@ -693,7 +695,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,7 +751,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
